--- a/datas/__beans__.xlsx
+++ b/datas/__beans__.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30240" windowHeight="13620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1025,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
@@ -1203,502 +1203,2000 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>GlobalConfig</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>全局配置</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>bed_refresh_time</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="n"/>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>config.TimeHHMM</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>床位刷新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" s="0" t="n"/>
+      <c r="K5" s="0" t="n"/>
+      <c r="L5" s="0" t="n"/>
+      <c r="M5" s="0" t="n"/>
+      <c r="N5" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Bed</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>床位配置</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="K7" s="0" t="inlineStr"/>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>slot_id</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr"/>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>byte</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>槽位 id</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr"/>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>interval_secs</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr"/>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>间隔</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>add_energy</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr"/>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>能量</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr"/>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>byte</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>player_limit</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr"/>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>byte</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>aura_max</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr"/>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>灵气</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Vip</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>VIP权益</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr"/>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>byte</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>等级</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>growth_value</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr"/>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>成长值</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>base_income</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr"/>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>income_limit</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr"/>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>上限</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>关系牌配置</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr"/>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>RelationshipType</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr"/>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>byte</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N22" s="0" t="inlineStr">
+        <is>
+          <t>等级</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr"/>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>称号</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>xp_required</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr"/>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t>经验</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>maintain_flower</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr"/>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N25" s="0" t="inlineStr">
+        <is>
+          <t>保级</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>活动主配置</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N27" s="0" t="inlineStr">
+        <is>
+          <t>活动ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>ActivityType</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N28" s="0" t="inlineStr">
+        <is>
+          <t>活动类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>cycle_type</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>CycleType</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N29" s="0" t="inlineStr">
+        <is>
+          <t>周期类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>interval_secs</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N30" s="0" t="inlineStr">
+        <is>
+          <t>间隔秒数(仅INTERVAL有效)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>begin_time</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N31" s="0" t="inlineStr">
+        <is>
+          <t>开始/锚点时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N32" s="0" t="inlineStr">
+        <is>
+          <t>结束时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N33" s="0" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M34" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N34" s="0" t="inlineStr">
+        <is>
+          <t>持续时长(秒)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>ActivityStage</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>活动阶段配置</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N36" s="0" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+    <row r="37">
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>activity_type</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>ActivityType</t>
+        </is>
+      </c>
+      <c r="M37" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N37" s="0" t="inlineStr">
+        <is>
+          <t>所属活动类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
+      <c r="L38" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M38" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N38" s="0" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="L39" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M39" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N39" s="0" t="inlineStr">
+        <is>
+          <t>持续时间(秒)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>stage_name</t>
+        </is>
+      </c>
+      <c r="L40" s="0" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>值</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bed</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>床位配置</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="M40" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N40" s="0" t="inlineStr">
+        <is>
+          <t>阶段标识</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="L41" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M41" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N41" s="0" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>FarmingConfig</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>种田专属配置</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>field_count</t>
+        </is>
+      </c>
+      <c r="L43" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M43" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N43" s="0" t="inlineStr">
+        <is>
+          <t>玩家田地数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="J44" s="0" t="inlineStr">
+        <is>
+          <t>max_count_per_field</t>
+        </is>
+      </c>
+      <c r="L44" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M44" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N44" s="0" t="inlineStr">
+        <is>
+          <t>单块田种植上限</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="J45" s="0" t="inlineStr">
+        <is>
+          <t>profit_coefficient</t>
+        </is>
+      </c>
+      <c r="L45" s="0" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="M45" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N45" s="0" t="inlineStr">
+        <is>
+          <t>收益系数</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="J46" s="0" t="inlineStr">
+        <is>
+          <t>broadcast_threshold</t>
+        </is>
+      </c>
+      <c r="L46" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M46" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N46" s="0" t="inlineStr">
+        <is>
+          <t>完美播报触发阈值</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="J47" s="0" t="inlineStr">
+        <is>
+          <t>broadcast_id</t>
+        </is>
+      </c>
+      <c r="L47" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M47" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N47" s="0" t="inlineStr">
+        <is>
+          <t>播报模板ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>CompetitionConfig</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>竞赛专属配置</t>
+        </is>
+      </c>
+      <c r="I50" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
+          <t>max_competitor_count</t>
+        </is>
+      </c>
+      <c r="L50" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M50" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N50" s="0" t="inlineStr">
+        <is>
+          <t>可以参与竞赛的人数上限</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="J51" s="0" t="inlineStr">
+        <is>
+          <t>prize_random_count</t>
+        </is>
+      </c>
+      <c r="L51" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M51" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N51" s="0" t="inlineStr">
+        <is>
+          <t>随机抽取奖励数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="J52" s="0" t="inlineStr">
+        <is>
+          <t>prize_fixed_count</t>
+        </is>
+      </c>
+      <c r="L52" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M52" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N52" s="0" t="inlineStr">
+        <is>
+          <t>固定展示奖励数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="J53" s="0" t="inlineStr">
+        <is>
+          <t>min_pk_score</t>
+        </is>
+      </c>
+      <c r="L53" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M53" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N53" s="0" t="inlineStr">
+        <is>
+          <t>抢占擂台最低分数要求</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="J54" s="0" t="inlineStr">
+        <is>
+          <t>min_extra_energy</t>
+        </is>
+      </c>
+      <c r="L54" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M54" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N54" s="0" t="inlineStr">
+        <is>
+          <t>额外助力最低能量限制</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="J55" s="0" t="inlineStr">
+        <is>
+          <t>pk_idle_timeout</t>
+        </is>
+      </c>
+      <c r="L55" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M55" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N55" s="0" t="inlineStr">
+        <is>
+          <t>无人抢占超时时长(秒)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="J56" s="0" t="inlineStr">
+        <is>
+          <t>settle_close_secs</t>
+        </is>
+      </c>
+      <c r="L56" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M56" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N56" s="0" t="inlineStr">
+        <is>
+          <t>结算自动关闭时长(秒)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>道具配置</t>
+        </is>
+      </c>
+      <c r="I58" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>slot_id</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>byte</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>槽位 id</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="J9" t="inlineStr">
+      <c r="L58" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M58" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N58" s="0" t="inlineStr">
+        <is>
+          <t>道具ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="J59" s="0" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="L59" s="0" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M59" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N59" s="0" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>interval_secs</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>间隔</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>add_energy</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>能量</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="J12" t="inlineStr">
+    <row r="60">
+      <c r="J60" s="0" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="L60" s="0" t="inlineStr">
+        <is>
+          <t>ItemCategory</t>
+        </is>
+      </c>
+      <c r="M60" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N60" s="0" t="inlineStr">
+        <is>
+          <t>大类</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="J61" s="0" t="inlineStr">
+        <is>
+          <t>sub_category</t>
+        </is>
+      </c>
+      <c r="L61" s="0" t="inlineStr">
+        <is>
+          <t>ItemSubCategory</t>
+        </is>
+      </c>
+      <c r="M61" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N61" s="0" t="inlineStr">
+        <is>
+          <t>子类</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="J62" s="0" t="inlineStr">
+        <is>
+          <t>max_stack</t>
+        </is>
+      </c>
+      <c r="L62" s="0" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="M62" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N62" s="0" t="inlineStr">
+        <is>
+          <t>堆叠上限</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="J63" s="0" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>byte</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="L63" s="0" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="M63" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N63" s="0" t="inlineStr">
         <is>
           <t>品质</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>player_limit</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>byte</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>人数</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>aura_max</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>灵气</t>
-        </is>
-      </c>
-    </row>
-    <row r="15"/>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Vip</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>VIP权益</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>byte</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>等级</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>growth_value</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>成长值</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>base_income</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>收益</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>income_limit</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>上限</t>
-        </is>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>关系牌配置</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+    <row r="64">
+      <c r="J64" s="0" t="inlineStr">
+        <is>
+          <t>expiry_type</t>
+        </is>
+      </c>
+      <c r="L64" s="0" t="inlineStr">
+        <is>
+          <t>ExpiryType</t>
+        </is>
+      </c>
+      <c r="M64" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N64" s="0" t="inlineStr">
+        <is>
+          <t>时效类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="J65" s="0" t="inlineStr">
+        <is>
+          <t>expiry_config</t>
+        </is>
+      </c>
+      <c r="L65" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M65" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N65" s="0" t="inlineStr">
+        <is>
+          <t>失效配置</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="J66" s="0" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="L66" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M66" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N66" s="0" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Drop</t>
+        </is>
+      </c>
+      <c r="J68" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L68" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="J69" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L69" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>DropGroup</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L71" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="J72" s="0" t="inlineStr">
+        <is>
+          <t>drop_id</t>
+        </is>
+      </c>
+      <c r="L72" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="J73" s="0" t="inlineStr">
+        <is>
+          <t>drop_type</t>
+        </is>
+      </c>
+      <c r="L73" s="0" t="inlineStr">
+        <is>
+          <t>DropType</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="J74" s="0" t="inlineStr">
+        <is>
+          <t>roll_count</t>
+        </is>
+      </c>
+      <c r="L74" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>DropItem</t>
+        </is>
+      </c>
+      <c r="J76" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L76" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="J77" s="0" t="inlineStr">
+        <is>
+          <t>group_id</t>
+        </is>
+      </c>
+      <c r="L77" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="J78" s="0" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="L78" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="J79" s="0" t="inlineStr">
+        <is>
+          <t>count_min</t>
+        </is>
+      </c>
+      <c r="L79" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="J80" s="0" t="inlineStr">
+        <is>
+          <t>count_max</t>
+        </is>
+      </c>
+      <c r="L80" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="J81" s="0" t="inlineStr">
+        <is>
+          <t>drop_value</t>
+        </is>
+      </c>
+      <c r="L81" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="J83" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L83" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="J84" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L84" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="J85" s="0" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>RelationshipType</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>类型</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>byte</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>等级</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="J23" t="inlineStr">
+      <c r="L85" s="0" t="inlineStr">
+        <is>
+          <t>StoreType</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>StoreItem</t>
+        </is>
+      </c>
+      <c r="J87" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L87" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N87" s="0" t="inlineStr">
+        <is>
+          <t>流水ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="J88" s="0" t="inlineStr">
+        <is>
+          <t>store_id</t>
+        </is>
+      </c>
+      <c r="L88" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N88" s="0" t="inlineStr">
+        <is>
+          <t>商店ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="J89" s="0" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="L89" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N89" s="0" t="inlineStr">
+        <is>
+          <t>道具ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="J90" s="0" t="inlineStr">
+        <is>
+          <t>currency_id</t>
+        </is>
+      </c>
+      <c r="L90" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N90" s="0" t="inlineStr">
+        <is>
+          <t>消耗货币(道具ID)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="J91" s="0" t="inlineStr">
+        <is>
+          <t>buy_price</t>
+        </is>
+      </c>
+      <c r="L91" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N91" s="0" t="inlineStr">
+        <is>
+          <t>买入价格</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="J92" s="0" t="inlineStr">
+        <is>
+          <t>sell_price</t>
+        </is>
+      </c>
+      <c r="L92" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N92" s="0" t="inlineStr">
+        <is>
+          <t>卖出价格</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="J93" s="0" t="inlineStr">
+        <is>
+          <t>limit_count</t>
+        </is>
+      </c>
+      <c r="L93" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N93" s="0" t="inlineStr">
+        <is>
+          <t>限购数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="J94" s="0" t="inlineStr">
+        <is>
+          <t>refresh_type</t>
+        </is>
+      </c>
+      <c r="L94" s="0" t="inlineStr">
+        <is>
+          <t>RefreshType</t>
+        </is>
+      </c>
+      <c r="N94" s="0" t="inlineStr">
+        <is>
+          <t>刷新类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="J95" s="0" t="inlineStr">
+        <is>
+          <t>refresh_config</t>
+        </is>
+      </c>
+      <c r="L95" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N95" s="0" t="inlineStr">
+        <is>
+          <t>刷新配置</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Backpack</t>
+        </is>
+      </c>
+      <c r="J97" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L97" s="0" t="inlineStr">
+        <is>
+          <t>BackpackType</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="J98" s="0" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="L98" s="0" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>称号</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>xp_required</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>经验</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>maintain_flower</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>保级</t>
+    </row>
+    <row r="99">
+      <c r="J99" s="0" t="inlineStr">
+        <is>
+          <t>capacity</t>
+        </is>
+      </c>
+      <c r="L99" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N99" s="0" t="inlineStr">
+        <is>
+          <t>上限(0代表无上限)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>Broadcast</t>
+        </is>
+      </c>
+      <c r="G101" s="0" t="inlineStr">
+        <is>
+          <t>播报配置</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J101" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L101" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N101" s="0" t="inlineStr">
+        <is>
+          <t>播报ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="J102" s="0" t="inlineStr">
+        <is>
+          <t>pos_type</t>
+        </is>
+      </c>
+      <c r="L102" s="0" t="inlineStr">
+        <is>
+          <t>BroadcastPos</t>
+        </is>
+      </c>
+      <c r="N102" s="0" t="inlineStr">
+        <is>
+          <t>表现形式</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="J103" s="0" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="L103" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N103" s="0" t="inlineStr">
+        <is>
+          <t>内容模板</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="J104" s="0" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="L104" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N104" s="0" t="inlineStr">
+        <is>
+          <t>优先级</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="J105" s="0" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="L105" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N105" s="0" t="inlineStr">
+        <is>
+          <t>显示时长(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>ItemDecor</t>
+        </is>
+      </c>
+      <c r="G107" s="0" t="inlineStr">
+        <is>
+          <t>服饰装饰属性</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J107" s="0" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="L107" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N107" s="0" t="inlineStr">
+        <is>
+          <t>道具ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="J108" s="0" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="L108" s="0" t="inlineStr">
+        <is>
+          <t>GenderType</t>
+        </is>
+      </c>
+      <c r="N108" s="0" t="inlineStr">
+        <is>
+          <t>性别限制</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="J109" s="0" t="inlineStr">
+        <is>
+          <t>decor_score</t>
+        </is>
+      </c>
+      <c r="L109" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N109" s="0" t="inlineStr">
+        <is>
+          <t>装饰得分</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="J110" s="0" t="inlineStr">
+        <is>
+          <t>energy_bonus</t>
+        </is>
+      </c>
+      <c r="L110" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N110" s="0" t="inlineStr">
+        <is>
+          <t>能量加成</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>GiftConfig</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>礼包配置</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>关联道具ID(0为纯系统包)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>drop_id</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>InitialReward</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>创角初始奖励</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>RoleType</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>gift_config_id</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>int</t>
         </is>
       </c>
     </row>

--- a/datas/__beans__.xlsx
+++ b/datas/__beans__.xlsx
@@ -1025,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
@@ -1241,34 +1241,55 @@
       </c>
     </row>
     <row r="5">
-      <c r="J5" s="0" t="n"/>
-      <c r="K5" s="0" t="n"/>
-      <c r="L5" s="0" t="n"/>
-      <c r="M5" s="0" t="n"/>
-      <c r="N5" s="0" t="n"/>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>bed_pk_diamond_score_rate</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>床位 PK 每 1 钻石增加积分</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>bed_pk_energy_score_rate</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>床位 PK 每 1 装饰能量增加积分</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Bed</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>床位配置</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr"/>
+          <t>bed_rel_exp_rate_by_diamond</t>
+        </is>
+      </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
           <t>int</t>
@@ -1281,60 +1302,44 @@
       </c>
       <c r="N7" s="0" t="inlineStr">
         <is>
-          <t>编号</t>
+          <t>床位关系玩家每消耗 1 钻石增加经验值</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>slot_id</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr"/>
+          <t>anchor_default_scene_id</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="n"/>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>byte</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>槽位 id</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr"/>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="n"/>
+      <c r="N8" s="0" t="n"/>
     </row>
     <row r="10">
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Bed</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>床位配置</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>interval_secs</t>
+          <t>id</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr"/>
@@ -1350,20 +1355,20 @@
       </c>
       <c r="N10" s="0" t="inlineStr">
         <is>
-          <t>间隔</t>
+          <t>编号</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>add_energy</t>
+          <t>slot_id</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr"/>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>byte</t>
         </is>
       </c>
       <c r="M11" s="0" t="inlineStr">
@@ -1373,20 +1378,20 @@
       </c>
       <c r="N11" s="0" t="inlineStr">
         <is>
-          <t>能量</t>
+          <t>槽位 id</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>name</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr"/>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>byte</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M12" s="0" t="inlineStr">
@@ -1396,20 +1401,20 @@
       </c>
       <c r="N12" s="0" t="inlineStr">
         <is>
-          <t>品质</t>
+          <t>名称</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>player_limit</t>
+          <t>interval_secs</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr"/>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>byte</t>
+          <t>int</t>
         </is>
       </c>
       <c r="M13" s="0" t="inlineStr">
@@ -1419,14 +1424,14 @@
       </c>
       <c r="N13" s="0" t="inlineStr">
         <is>
-          <t>人数</t>
+          <t>间隔</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>aura_max</t>
+          <t>add_energy</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr"/>
@@ -1442,29 +1447,37 @@
       </c>
       <c r="N14" s="0" t="inlineStr">
         <is>
-          <t>灵气</t>
+          <t>能量</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr"/>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>byte</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>品质</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>Vip</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>VIP权益</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>player_limit</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr"/>
@@ -1480,14 +1493,14 @@
       </c>
       <c r="N16" s="0" t="inlineStr">
         <is>
-          <t>等级</t>
+          <t>人数</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>growth_value</t>
+          <t>aura_max</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr"/>
@@ -1503,43 +1516,35 @@
       </c>
       <c r="N17" s="0" t="inlineStr">
         <is>
-          <t>成长值</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t>base_income</t>
-        </is>
-      </c>
-      <c r="K18" s="0" t="inlineStr"/>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N18" s="0" t="inlineStr">
-        <is>
-          <t>收益</t>
+          <t>灵气</t>
         </is>
       </c>
     </row>
     <row r="19">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Vip</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>VIP权益</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>income_limit</t>
+          <t>level</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr"/>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>byte</t>
         </is>
       </c>
       <c r="M19" s="0" t="inlineStr">
@@ -1549,35 +1554,43 @@
       </c>
       <c r="N19" s="0" t="inlineStr">
         <is>
-          <t>上限</t>
+          <t>等级</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>growth_value</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr"/>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>成长值</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>关系牌配置</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>base_income</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr"/>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>RelationshipType</t>
+          <t>short</t>
         </is>
       </c>
       <c r="M21" s="0" t="inlineStr">
@@ -1587,20 +1600,20 @@
       </c>
       <c r="N21" s="0" t="inlineStr">
         <is>
-          <t>类型</t>
+          <t>收益</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>income_limit</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr"/>
       <c r="L22" s="0" t="inlineStr">
         <is>
-          <t>byte</t>
+          <t>int</t>
         </is>
       </c>
       <c r="M22" s="0" t="inlineStr">
@@ -1610,43 +1623,35 @@
       </c>
       <c r="N22" s="0" t="inlineStr">
         <is>
-          <t>等级</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="J23" s="0" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="K23" s="0" t="inlineStr"/>
-      <c r="L23" s="0" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M23" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N23" s="0" t="inlineStr">
-        <is>
-          <t>称号</t>
+          <t>上限</t>
         </is>
       </c>
     </row>
     <row r="24">
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>关系牌配置</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>xp_required</t>
+          <t>type</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr"/>
       <c r="L24" s="0" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>RelationshipType</t>
         </is>
       </c>
       <c r="M24" s="0" t="inlineStr">
@@ -1656,20 +1661,20 @@
       </c>
       <c r="N24" s="0" t="inlineStr">
         <is>
-          <t>经验</t>
+          <t>类型</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>maintain_flower</t>
+          <t>level</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr"/>
       <c r="L25" s="0" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>byte</t>
         </is>
       </c>
       <c r="M25" s="0" t="inlineStr">
@@ -1679,31 +1684,40 @@
       </c>
       <c r="N25" s="0" t="inlineStr">
         <is>
-          <t>保级</t>
+          <t>等级</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr"/>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N26" s="0" t="inlineStr">
+        <is>
+          <t>称号</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>活动主配置</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
+          <t>xp_required</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr"/>
       <c r="L27" s="0" t="inlineStr">
         <is>
           <t>int</t>
@@ -1716,19 +1730,20 @@
       </c>
       <c r="N27" s="0" t="inlineStr">
         <is>
-          <t>活动ID</t>
+          <t>经验</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>type</t>
-        </is>
-      </c>
+          <t>maintain_flower</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr"/>
       <c r="L28" s="0" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>short</t>
         </is>
       </c>
       <c r="M28" s="0" t="inlineStr">
@@ -1738,41 +1753,34 @@
       </c>
       <c r="N28" s="0" t="inlineStr">
         <is>
-          <t>活动类型</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="J29" s="0" t="inlineStr">
-        <is>
-          <t>cycle_type</t>
-        </is>
-      </c>
-      <c r="L29" s="0" t="inlineStr">
-        <is>
-          <t>CycleType</t>
-        </is>
-      </c>
-      <c r="M29" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N29" s="0" t="inlineStr">
-        <is>
-          <t>周期类型</t>
+          <t>保级</t>
         </is>
       </c>
     </row>
     <row r="30">
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>活动主配置</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
       <c r="J30" s="0" t="inlineStr">
         <is>
-          <t>interval_secs</t>
+          <t>id</t>
         </is>
       </c>
       <c r="L30" s="0" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>int</t>
         </is>
       </c>
       <c r="M30" s="0" t="inlineStr">
@@ -1782,19 +1790,19 @@
       </c>
       <c r="N30" s="0" t="inlineStr">
         <is>
-          <t>间隔秒数(仅INTERVAL有效)</t>
+          <t>活动ID</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>begin_time</t>
+          <t>type</t>
         </is>
       </c>
       <c r="L31" s="0" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="M31" s="0" t="inlineStr">
@@ -1804,19 +1812,19 @@
       </c>
       <c r="N31" s="0" t="inlineStr">
         <is>
-          <t>开始/锚点时间</t>
+          <t>活动类型</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>end_time</t>
+          <t>cycle_type</t>
         </is>
       </c>
       <c r="L32" s="0" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>CycleType</t>
         </is>
       </c>
       <c r="M32" s="0" t="inlineStr">
@@ -1826,19 +1834,19 @@
       </c>
       <c r="N32" s="0" t="inlineStr">
         <is>
-          <t>结束时间</t>
+          <t>周期类型</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>interval_secs</t>
         </is>
       </c>
       <c r="L33" s="0" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>long</t>
         </is>
       </c>
       <c r="M33" s="0" t="inlineStr">
@@ -1848,19 +1856,19 @@
       </c>
       <c r="N33" s="0" t="inlineStr">
         <is>
-          <t>备注</t>
+          <t>间隔秒数(仅INTERVAL有效)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>begin_time</t>
         </is>
       </c>
       <c r="L34" s="0" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="M34" s="0" t="inlineStr">
@@ -1870,34 +1878,41 @@
       </c>
       <c r="N34" s="0" t="inlineStr">
         <is>
-          <t>持续时长(秒)</t>
+          <t>开始/锚点时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="M35" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N35" s="0" t="inlineStr">
+        <is>
+          <t>结束时间</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>ActivityStage</t>
-        </is>
-      </c>
-      <c r="G36" s="0" t="inlineStr">
-        <is>
-          <t>活动阶段配置</t>
-        </is>
-      </c>
-      <c r="I36" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="L36" s="0" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M36" s="0" t="inlineStr">
@@ -1907,19 +1922,19 @@
       </c>
       <c r="N36" s="0" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>备注</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>activity_type</t>
+          <t>duration</t>
         </is>
       </c>
       <c r="L37" s="0" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>int</t>
         </is>
       </c>
       <c r="M37" s="0" t="inlineStr">
@@ -1929,36 +1944,29 @@
       </c>
       <c r="N37" s="0" t="inlineStr">
         <is>
-          <t>所属活动类型</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="J38" s="0" t="inlineStr">
-        <is>
-          <t>sequence</t>
-        </is>
-      </c>
-      <c r="L38" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M38" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N38" s="0" t="inlineStr">
-        <is>
-          <t>顺序</t>
+          <t>持续时长(秒)</t>
         </is>
       </c>
     </row>
     <row r="39">
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>ActivityStage</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>活动阶段配置</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>id</t>
         </is>
       </c>
       <c r="L39" s="0" t="inlineStr">
@@ -1973,19 +1981,19 @@
       </c>
       <c r="N39" s="0" t="inlineStr">
         <is>
-          <t>持续时间(秒)</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>stage_name</t>
+          <t>activity_type</t>
         </is>
       </c>
       <c r="L40" s="0" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="M40" s="0" t="inlineStr">
@@ -1995,58 +2003,65 @@
       </c>
       <c r="N40" s="0" t="inlineStr">
         <is>
-          <t>阶段标识</t>
+          <t>所属活动类型</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>sequence</t>
         </is>
       </c>
       <c r="L41" s="0" t="inlineStr">
         <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M41" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N41" s="0" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="L42" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M42" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N42" s="0" t="inlineStr">
+        <is>
+          <t>持续时间(秒)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>stage_name</t>
+        </is>
+      </c>
+      <c r="L43" s="0" t="inlineStr">
+        <is>
           <t>string</t>
         </is>
       </c>
-      <c r="M41" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N41" s="0" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>FarmingConfig</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="inlineStr">
-        <is>
-          <t>种田专属配置</t>
-        </is>
-      </c>
-      <c r="I43" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="J43" s="0" t="inlineStr">
-        <is>
-          <t>field_count</t>
-        </is>
-      </c>
-      <c r="L43" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
       <c r="M43" s="0" t="inlineStr">
         <is>
           <t>c;s</t>
@@ -2054,19 +2069,19 @@
       </c>
       <c r="N43" s="0" t="inlineStr">
         <is>
-          <t>玩家田地数量</t>
+          <t>阶段标识</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>max_count_per_field</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="L44" s="0" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M44" s="0" t="inlineStr">
@@ -2076,36 +2091,29 @@
       </c>
       <c r="N44" s="0" t="inlineStr">
         <is>
-          <t>单块田种植上限</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="J45" s="0" t="inlineStr">
-        <is>
-          <t>profit_coefficient</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="M45" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N45" s="0" t="inlineStr">
-        <is>
-          <t>收益系数</t>
+          <t>备注</t>
         </is>
       </c>
     </row>
     <row r="46">
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>FarmingConfig</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>种田专属配置</t>
+        </is>
+      </c>
+      <c r="I46" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>broadcast_threshold</t>
+          <t>field_count</t>
         </is>
       </c>
       <c r="L46" s="0" t="inlineStr">
@@ -2120,139 +2128,139 @@
       </c>
       <c r="N46" s="0" t="inlineStr">
         <is>
-          <t>完美播报触发阈值</t>
+          <t>玩家田地数量</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="J47" s="0" t="inlineStr">
         <is>
+          <t>max_count_per_field</t>
+        </is>
+      </c>
+      <c r="L47" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M47" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N47" s="0" t="inlineStr">
+        <is>
+          <t>单块田种植上限</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="J48" s="0" t="inlineStr">
+        <is>
+          <t>profit_coefficient</t>
+        </is>
+      </c>
+      <c r="L48" s="0" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="M48" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N48" s="0" t="inlineStr">
+        <is>
+          <t>收益系数</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="J49" s="0" t="inlineStr">
+        <is>
+          <t>broadcast_threshold</t>
+        </is>
+      </c>
+      <c r="L49" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M49" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N49" s="0" t="inlineStr">
+        <is>
+          <t>完美播报触发阈值</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="J50" s="0" t="inlineStr">
+        <is>
           <t>broadcast_id</t>
         </is>
       </c>
-      <c r="L47" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M47" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N47" s="0" t="inlineStr">
+      <c r="L50" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M50" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N50" s="0" t="inlineStr">
         <is>
           <t>播报模板ID</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" s="0" t="inlineStr">
+    <row r="53">
+      <c r="B53" s="0" t="inlineStr">
         <is>
           <t>CompetitionConfig</t>
         </is>
       </c>
-      <c r="G50" s="0" t="inlineStr">
+      <c r="G53" s="0" t="inlineStr">
         <is>
           <t>竞赛专属配置</t>
         </is>
       </c>
-      <c r="I50" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="J50" s="0" t="inlineStr">
+      <c r="I53" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J53" s="0" t="inlineStr">
         <is>
           <t>max_competitor_count</t>
         </is>
       </c>
-      <c r="L50" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M50" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N50" s="0" t="inlineStr">
+      <c r="L53" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M53" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N53" s="0" t="inlineStr">
         <is>
           <t>可以参与竞赛的人数上限</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="J51" s="0" t="inlineStr">
-        <is>
-          <t>prize_random_count</t>
-        </is>
-      </c>
-      <c r="L51" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M51" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N51" s="0" t="inlineStr">
-        <is>
-          <t>随机抽取奖励数量</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="J52" s="0" t="inlineStr">
-        <is>
-          <t>prize_fixed_count</t>
-        </is>
-      </c>
-      <c r="L52" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M52" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N52" s="0" t="inlineStr">
-        <is>
-          <t>固定展示奖励数量</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="J53" s="0" t="inlineStr">
-        <is>
-          <t>min_pk_score</t>
-        </is>
-      </c>
-      <c r="L53" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="M53" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N53" s="0" t="inlineStr">
-        <is>
-          <t>抢占擂台最低分数要求</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>min_extra_energy</t>
+          <t>prize_random_count</t>
         </is>
       </c>
       <c r="L54" s="0" t="inlineStr">
@@ -2267,14 +2275,14 @@
       </c>
       <c r="N54" s="0" t="inlineStr">
         <is>
-          <t>额外助力最低能量限制</t>
+          <t>随机抽取奖励数量</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>pk_idle_timeout</t>
+          <t>prize_fixed_count</t>
         </is>
       </c>
       <c r="L55" s="0" t="inlineStr">
@@ -2289,14 +2297,14 @@
       </c>
       <c r="N55" s="0" t="inlineStr">
         <is>
-          <t>无人抢占超时时长(秒)</t>
+          <t>固定展示奖励数量</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>settle_close_secs</t>
+          <t>min_pk_score</t>
         </is>
       </c>
       <c r="L56" s="0" t="inlineStr">
@@ -2311,29 +2319,36 @@
       </c>
       <c r="N56" s="0" t="inlineStr">
         <is>
-          <t>结算自动关闭时长(秒)</t>
+          <t>抢占擂台最低分数要求</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="J57" s="0" t="inlineStr">
+        <is>
+          <t>min_extra_energy</t>
+        </is>
+      </c>
+      <c r="L57" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M57" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N57" s="0" t="inlineStr">
+        <is>
+          <t>额外助力最低能量限制</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>道具配置</t>
-        </is>
-      </c>
-      <c r="I58" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
       <c r="J58" s="0" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>pk_idle_timeout</t>
         </is>
       </c>
       <c r="L58" s="0" t="inlineStr">
@@ -2348,19 +2363,19 @@
       </c>
       <c r="N58" s="0" t="inlineStr">
         <is>
-          <t>道具ID</t>
+          <t>无人抢占超时时长(秒)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>settle_close_secs</t>
         </is>
       </c>
       <c r="L59" s="0" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>int</t>
         </is>
       </c>
       <c r="M59" s="0" t="inlineStr">
@@ -2370,41 +2385,34 @@
       </c>
       <c r="N59" s="0" t="inlineStr">
         <is>
-          <t>名称</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="J60" s="0" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="L60" s="0" t="inlineStr">
-        <is>
-          <t>ItemCategory</t>
-        </is>
-      </c>
-      <c r="M60" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N60" s="0" t="inlineStr">
-        <is>
-          <t>大类</t>
+          <t>结算自动关闭时长(秒)</t>
         </is>
       </c>
     </row>
     <row r="61">
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>道具配置</t>
+        </is>
+      </c>
+      <c r="I61" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>sub_category</t>
+          <t>id</t>
         </is>
       </c>
       <c r="L61" s="0" t="inlineStr">
         <is>
-          <t>ItemSubCategory</t>
+          <t>int</t>
         </is>
       </c>
       <c r="M61" s="0" t="inlineStr">
@@ -2414,19 +2422,19 @@
       </c>
       <c r="N61" s="0" t="inlineStr">
         <is>
-          <t>子类</t>
+          <t>道具ID</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>max_stack</t>
+          <t>name</t>
         </is>
       </c>
       <c r="L62" s="0" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M62" s="0" t="inlineStr">
@@ -2436,19 +2444,19 @@
       </c>
       <c r="N62" s="0" t="inlineStr">
         <is>
-          <t>堆叠上限</t>
+          <t>名称</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>category</t>
         </is>
       </c>
       <c r="L63" s="0" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>ItemCategory</t>
         </is>
       </c>
       <c r="M63" s="0" t="inlineStr">
@@ -2458,19 +2466,19 @@
       </c>
       <c r="N63" s="0" t="inlineStr">
         <is>
-          <t>品质</t>
+          <t>大类</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>expiry_type</t>
+          <t>sub_category</t>
         </is>
       </c>
       <c r="L64" s="0" t="inlineStr">
         <is>
-          <t>ExpiryType</t>
+          <t>ItemSubCategory</t>
         </is>
       </c>
       <c r="M64" s="0" t="inlineStr">
@@ -2480,19 +2488,19 @@
       </c>
       <c r="N64" s="0" t="inlineStr">
         <is>
-          <t>时效类型</t>
+          <t>子类</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="J65" s="0" t="inlineStr">
         <is>
-          <t>expiry_config</t>
+          <t>max_stack</t>
         </is>
       </c>
       <c r="L65" s="0" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>long</t>
         </is>
       </c>
       <c r="M65" s="0" t="inlineStr">
@@ -2502,65 +2510,102 @@
       </c>
       <c r="N65" s="0" t="inlineStr">
         <is>
-          <t>失效配置</t>
+          <t>堆叠上限</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="J66" s="0" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="L66" s="0" t="inlineStr">
         <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="M66" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N66" s="0" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="J67" s="0" t="inlineStr">
+        <is>
+          <t>expiry_type</t>
+        </is>
+      </c>
+      <c r="L67" s="0" t="inlineStr">
+        <is>
+          <t>ExpiryType</t>
+        </is>
+      </c>
+      <c r="M67" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N67" s="0" t="inlineStr">
+        <is>
+          <t>时效类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="J68" s="0" t="inlineStr">
+        <is>
+          <t>expiry_config</t>
+        </is>
+      </c>
+      <c r="L68" s="0" t="inlineStr">
+        <is>
           <t>string</t>
         </is>
       </c>
-      <c r="M66" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="N66" s="0" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="0" t="inlineStr">
-        <is>
-          <t>Drop</t>
-        </is>
-      </c>
-      <c r="J68" s="0" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="L68" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
+      <c r="M68" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N68" s="0" t="inlineStr">
+        <is>
+          <t>失效配置</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="J69" s="0" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="L69" s="0" t="inlineStr">
         <is>
           <t>string</t>
+        </is>
+      </c>
+      <c r="M69" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N69" s="0" t="inlineStr">
+        <is>
+          <t>备注</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>DropGroup</t>
+          <t>Drop</t>
         </is>
       </c>
       <c r="J71" s="0" t="inlineStr">
@@ -2577,60 +2622,60 @@
     <row r="72">
       <c r="J72" s="0" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L72" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>DropGroup</t>
+        </is>
+      </c>
+      <c r="J74" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L74" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="J75" s="0" t="inlineStr">
+        <is>
           <t>drop_id</t>
         </is>
       </c>
-      <c r="L72" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="J73" s="0" t="inlineStr">
+      <c r="L75" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="J76" s="0" t="inlineStr">
         <is>
           <t>drop_type</t>
         </is>
       </c>
-      <c r="L73" s="0" t="inlineStr">
+      <c r="L76" s="0" t="inlineStr">
         <is>
           <t>DropType</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="J74" s="0" t="inlineStr">
-        <is>
-          <t>roll_count</t>
-        </is>
-      </c>
-      <c r="L74" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>DropItem</t>
-        </is>
-      </c>
-      <c r="J76" s="0" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="L76" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="J77" s="0" t="inlineStr">
         <is>
-          <t>group_id</t>
+          <t>roll_count</t>
         </is>
       </c>
       <c r="L77" s="0" t="inlineStr">
@@ -2639,22 +2684,15 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="J78" s="0" t="inlineStr">
-        <is>
-          <t>item_id</t>
-        </is>
-      </c>
-      <c r="L78" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-    </row>
     <row r="79">
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>DropItem</t>
+        </is>
+      </c>
       <c r="J79" s="0" t="inlineStr">
         <is>
-          <t>count_min</t>
+          <t>id</t>
         </is>
       </c>
       <c r="L79" s="0" t="inlineStr">
@@ -2666,7 +2704,7 @@
     <row r="80">
       <c r="J80" s="0" t="inlineStr">
         <is>
-          <t>count_max</t>
+          <t>group_id</t>
         </is>
       </c>
       <c r="L80" s="0" t="inlineStr">
@@ -2678,7 +2716,7 @@
     <row r="81">
       <c r="J81" s="0" t="inlineStr">
         <is>
-          <t>drop_value</t>
+          <t>item_id</t>
         </is>
       </c>
       <c r="L81" s="0" t="inlineStr">
@@ -2687,15 +2725,22 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="J82" s="0" t="inlineStr">
+        <is>
+          <t>count_min</t>
+        </is>
+      </c>
+      <c r="L82" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
     <row r="83">
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
       <c r="J83" s="0" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>count_max</t>
         </is>
       </c>
       <c r="L83" s="0" t="inlineStr">
@@ -2707,87 +2752,65 @@
     <row r="84">
       <c r="J84" s="0" t="inlineStr">
         <is>
+          <t>drop_value</t>
+        </is>
+      </c>
+      <c r="L84" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="J86" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L86" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="J87" s="0" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="L84" s="0" t="inlineStr">
+      <c r="L87" s="0" t="inlineStr">
         <is>
           <t>string</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="J85" s="0" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="L85" s="0" t="inlineStr">
-        <is>
-          <t>StoreType</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="0" t="inlineStr">
-        <is>
-          <t>StoreItem</t>
-        </is>
-      </c>
-      <c r="J87" s="0" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="L87" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="N87" s="0" t="inlineStr">
-        <is>
-          <t>流水ID</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="J88" s="0" t="inlineStr">
         <is>
-          <t>store_id</t>
+          <t>type</t>
         </is>
       </c>
       <c r="L88" s="0" t="inlineStr">
         <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="N88" s="0" t="inlineStr">
-        <is>
-          <t>商店ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="J89" s="0" t="inlineStr">
-        <is>
-          <t>item_id</t>
-        </is>
-      </c>
-      <c r="L89" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="N89" s="0" t="inlineStr">
-        <is>
-          <t>道具ID</t>
+          <t>StoreType</t>
         </is>
       </c>
     </row>
     <row r="90">
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>StoreItem</t>
+        </is>
+      </c>
       <c r="J90" s="0" t="inlineStr">
         <is>
-          <t>currency_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="L90" s="0" t="inlineStr">
@@ -2797,14 +2820,14 @@
       </c>
       <c r="N90" s="0" t="inlineStr">
         <is>
-          <t>消耗货币(道具ID)</t>
+          <t>流水ID</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="J91" s="0" t="inlineStr">
         <is>
-          <t>buy_price</t>
+          <t>store_id</t>
         </is>
       </c>
       <c r="L91" s="0" t="inlineStr">
@@ -2814,14 +2837,14 @@
       </c>
       <c r="N91" s="0" t="inlineStr">
         <is>
-          <t>买入价格</t>
+          <t>商店ID</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="J92" s="0" t="inlineStr">
         <is>
-          <t>sell_price</t>
+          <t>item_id</t>
         </is>
       </c>
       <c r="L92" s="0" t="inlineStr">
@@ -2831,14 +2854,14 @@
       </c>
       <c r="N92" s="0" t="inlineStr">
         <is>
-          <t>卖出价格</t>
+          <t>道具ID</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="J93" s="0" t="inlineStr">
         <is>
-          <t>limit_count</t>
+          <t>currency_id</t>
         </is>
       </c>
       <c r="L93" s="0" t="inlineStr">
@@ -2848,160 +2871,160 @@
       </c>
       <c r="N93" s="0" t="inlineStr">
         <is>
-          <t>限购数量</t>
+          <t>消耗货币(道具ID)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="J94" s="0" t="inlineStr">
         <is>
-          <t>refresh_type</t>
+          <t>buy_price</t>
         </is>
       </c>
       <c r="L94" s="0" t="inlineStr">
         <is>
-          <t>RefreshType</t>
+          <t>int</t>
         </is>
       </c>
       <c r="N94" s="0" t="inlineStr">
         <is>
-          <t>刷新类型</t>
+          <t>买入价格</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="J95" s="0" t="inlineStr">
         <is>
-          <t>refresh_config</t>
+          <t>sell_price</t>
         </is>
       </c>
       <c r="L95" s="0" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>int</t>
         </is>
       </c>
       <c r="N95" s="0" t="inlineStr">
         <is>
-          <t>刷新配置</t>
+          <t>卖出价格</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="J96" s="0" t="inlineStr">
+        <is>
+          <t>limit_count</t>
+        </is>
+      </c>
+      <c r="L96" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N96" s="0" t="inlineStr">
+        <is>
+          <t>限购数量</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="0" t="inlineStr">
-        <is>
-          <t>Backpack</t>
-        </is>
-      </c>
       <c r="J97" s="0" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>refresh_type</t>
         </is>
       </c>
       <c r="L97" s="0" t="inlineStr">
         <is>
-          <t>BackpackType</t>
+          <t>RefreshType</t>
+        </is>
+      </c>
+      <c r="N97" s="0" t="inlineStr">
+        <is>
+          <t>刷新类型</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="J98" s="0" t="inlineStr">
         <is>
+          <t>refresh_config</t>
+        </is>
+      </c>
+      <c r="L98" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N98" s="0" t="inlineStr">
+        <is>
+          <t>刷新配置</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Backpack</t>
+        </is>
+      </c>
+      <c r="J100" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L100" s="0" t="inlineStr">
+        <is>
+          <t>BackpackType</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="J101" s="0" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="L98" s="0" t="inlineStr">
+      <c r="L101" s="0" t="inlineStr">
         <is>
           <t>string</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="J99" s="0" t="inlineStr">
-        <is>
-          <t>capacity</t>
-        </is>
-      </c>
-      <c r="L99" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="N99" s="0" t="inlineStr">
-        <is>
-          <t>上限(0代表无上限)</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" s="0" t="inlineStr">
-        <is>
-          <t>Broadcast</t>
-        </is>
-      </c>
-      <c r="G101" s="0" t="inlineStr">
-        <is>
-          <t>播报配置</t>
-        </is>
-      </c>
-      <c r="I101" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
-      <c r="J101" s="0" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="L101" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="N101" s="0" t="inlineStr">
-        <is>
-          <t>播报ID</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="J102" s="0" t="inlineStr">
         <is>
-          <t>pos_type</t>
+          <t>capacity</t>
         </is>
       </c>
       <c r="L102" s="0" t="inlineStr">
         <is>
-          <t>BroadcastPos</t>
+          <t>int</t>
         </is>
       </c>
       <c r="N102" s="0" t="inlineStr">
         <is>
-          <t>表现形式</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="J103" s="0" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="L103" s="0" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N103" s="0" t="inlineStr">
-        <is>
-          <t>内容模板</t>
+          <t>上限(0代表无上限)</t>
         </is>
       </c>
     </row>
     <row r="104">
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>Broadcast</t>
+        </is>
+      </c>
+      <c r="G104" s="0" t="inlineStr">
+        <is>
+          <t>播报配置</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
       <c r="J104" s="0" t="inlineStr">
         <is>
-          <t>priority</t>
+          <t>id</t>
         </is>
       </c>
       <c r="L104" s="0" t="inlineStr">
@@ -3011,46 +3034,48 @@
       </c>
       <c r="N104" s="0" t="inlineStr">
         <is>
-          <t>优先级</t>
+          <t>播报ID</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="J105" s="0" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>pos_type</t>
         </is>
       </c>
       <c r="L105" s="0" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>BroadcastPos</t>
         </is>
       </c>
       <c r="N105" s="0" t="inlineStr">
         <is>
-          <t>显示时长(s)</t>
+          <t>表现形式</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="J106" s="0" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="L106" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N106" s="0" t="inlineStr">
+        <is>
+          <t>内容模板</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="B107" s="0" t="inlineStr">
-        <is>
-          <t>ItemDecor</t>
-        </is>
-      </c>
-      <c r="G107" s="0" t="inlineStr">
-        <is>
-          <t>服饰装饰属性</t>
-        </is>
-      </c>
-      <c r="I107" s="0" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
       <c r="J107" s="0" t="inlineStr">
         <is>
-          <t>item_id</t>
+          <t>priority</t>
         </is>
       </c>
       <c r="L107" s="0" t="inlineStr">
@@ -3060,143 +3085,468 @@
       </c>
       <c r="N107" s="0" t="inlineStr">
         <is>
-          <t>道具ID</t>
+          <t>优先级</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="J108" s="0" t="inlineStr">
         <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="L108" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N108" s="0" t="inlineStr">
+        <is>
+          <t>显示时长(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>ItemDecor</t>
+        </is>
+      </c>
+      <c r="G110" s="0" t="inlineStr">
+        <is>
+          <t>服饰装饰属性</t>
+        </is>
+      </c>
+      <c r="I110" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J110" s="0" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="L110" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N110" s="0" t="inlineStr">
+        <is>
+          <t>道具ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="J111" s="0" t="inlineStr">
+        <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="L108" s="0" t="inlineStr">
+      <c r="L111" s="0" t="inlineStr">
         <is>
           <t>GenderType</t>
         </is>
       </c>
-      <c r="N108" s="0" t="inlineStr">
+      <c r="N111" s="0" t="inlineStr">
         <is>
           <t>性别限制</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="J109" s="0" t="inlineStr">
+    <row r="112">
+      <c r="J112" s="0" t="inlineStr">
         <is>
           <t>decor_score</t>
         </is>
       </c>
-      <c r="L109" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="N109" s="0" t="inlineStr">
+      <c r="L112" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N112" s="0" t="inlineStr">
         <is>
           <t>装饰得分</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="J110" s="0" t="inlineStr">
+    <row r="113">
+      <c r="J113" s="0" t="inlineStr">
         <is>
           <t>energy_bonus</t>
         </is>
       </c>
-      <c r="L110" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="N110" s="0" t="inlineStr">
+      <c r="L113" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N113" s="0" t="inlineStr">
         <is>
           <t>能量加成</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="B112" t="inlineStr">
+    <row r="115">
+      <c r="B115" s="0" t="inlineStr">
         <is>
           <t>GiftConfig</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G115" s="0" t="inlineStr">
         <is>
           <t>礼包配置</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="J115" s="0" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="J113" t="inlineStr">
+      <c r="L115" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="J116" s="0" t="inlineStr">
         <is>
           <t>item_id</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
+      <c r="L116" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="N116" s="0" t="inlineStr">
         <is>
           <t>关联道具ID(0为纯系统包)</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="J114" t="inlineStr">
+    <row r="117">
+      <c r="J117" s="0" t="inlineStr">
         <is>
           <t>drop_id</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
+      <c r="L117" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="0" t="inlineStr">
         <is>
           <t>InitialReward</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="G119" s="0" t="inlineStr">
         <is>
           <t>创角初始奖励</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="J119" s="0" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L119" s="0" t="inlineStr">
         <is>
           <t>RoleType</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="J117" t="inlineStr">
+    <row r="120">
+      <c r="J120" s="0" t="inlineStr">
         <is>
           <t>gift_config_id</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>int</t>
+      <c r="L120" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G122" s="0" t="inlineStr">
+        <is>
+          <t>角色/皮肤配置</t>
+        </is>
+      </c>
+      <c r="I122" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J122" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L122" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M122" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N122" s="0" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="J123" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L123" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M123" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N123" s="0" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="J124" s="0" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="L124" s="0" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="M124" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N124" s="0" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="J125" s="0" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="L125" s="0" t="inlineStr">
+        <is>
+          <t>GenderType</t>
+        </is>
+      </c>
+      <c r="M125" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N125" s="0" t="inlineStr">
+        <is>
+          <t>性别</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="J126" s="0" t="inlineStr">
+        <is>
+          <t>decoration_score</t>
+        </is>
+      </c>
+      <c r="L126" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M126" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N126" s="0" t="inlineStr">
+        <is>
+          <t>装饰积分</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="J127" s="0" t="inlineStr">
+        <is>
+          <t>decoration_energy_bonus</t>
+        </is>
+      </c>
+      <c r="L127" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M127" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N127" s="0" t="inlineStr">
+        <is>
+          <t>装饰能量加成</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="J128" s="0" t="inlineStr">
+        <is>
+          <t>expire_days</t>
+        </is>
+      </c>
+      <c r="L128" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M128" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N128" s="0" t="inlineStr">
+        <is>
+          <t>有效天数(0=永久)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="J129" s="0" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="L129" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M129" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N129" s="0" t="inlineStr">
+        <is>
+          <t>资源路径</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="J130" s="0" t="inlineStr">
+        <is>
+          <t>asset_PK</t>
+        </is>
+      </c>
+      <c r="L130" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M130" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N130" s="0" t="inlineStr">
+        <is>
+          <t>PK资源路径</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="J131" s="0" t="n"/>
+      <c r="L131" s="0" t="n"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>Scene</t>
+        </is>
+      </c>
+      <c r="G132" s="0" t="inlineStr">
+        <is>
+          <t>场景配置</t>
+        </is>
+      </c>
+      <c r="I132" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J132" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L132" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M132" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N132" s="0" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="J133" s="0" t="inlineStr">
+        <is>
+          <t>scene_name</t>
+        </is>
+      </c>
+      <c r="L133" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M133" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N133" s="0" t="inlineStr">
+        <is>
+          <t>场景名称</t>
         </is>
       </c>
     </row>
